--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a\AutFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\aut\RestAssuredAPIAutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B1A6C-1C6D-4AE6-B66B-F184379E1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C3E31-37F2-4FCD-A173-EC2266C968AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
   </bookViews>
   <sheets>
     <sheet name="customer-accounts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -117,9 +117,6 @@
     <t>usr03</t>
   </si>
   <si>
-    <t>sys101</t>
-  </si>
-  <si>
     <t>Verify transfere between from the account to the same account should NOT be processed</t>
   </si>
   <si>
@@ -196,6 +193,45 @@
   </si>
   <si>
     <t>token-username</t>
+  </si>
+  <si>
+    <t>checking2</t>
+  </si>
+  <si>
+    <t>saving2</t>
+  </si>
+  <si>
+    <t>checking3</t>
+  </si>
+  <si>
+    <t>saving4</t>
+  </si>
+  <si>
+    <t>checking5</t>
+  </si>
+  <si>
+    <t>saving5</t>
+  </si>
+  <si>
+    <t>checking6</t>
+  </si>
+  <si>
+    <t>saving6</t>
+  </si>
+  <si>
+    <t>saving3</t>
+  </si>
+  <si>
+    <t>checking4</t>
+  </si>
+  <si>
+    <t>usr01.default</t>
+  </si>
+  <si>
+    <t>usr04.default</t>
+  </si>
+  <si>
+    <t>usr02.default</t>
   </si>
 </sst>
 </file>
@@ -565,7 +601,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -636,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -650,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -664,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -678,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -738,15 +774,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DBAF80-3095-47FB-9F31-5B7483FD57EE}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="128.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
@@ -794,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -809,7 +845,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -838,7 +874,7 @@
         <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,7 +903,7 @@
         <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,10 +917,10 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>1.4950000000000001</v>
@@ -896,7 +932,7 @@
         <v>200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,10 +946,10 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1.494</v>
@@ -925,7 +961,7 @@
         <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,13 +972,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>99000</v>
@@ -954,7 +990,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -992,19 +1028,19 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1021,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1045,7 +1081,7 @@
         <v>400</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1077,7 +1113,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1109,7 +1145,7 @@
         <v>400</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,19 +1153,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1141,7 +1177,7 @@
         <v>400</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,19 +1185,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1173,7 +1209,7 @@
         <v>400</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1181,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1205,7 +1241,7 @@
         <v>400</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1213,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1237,7 +1273,7 @@
         <v>400</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1245,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1263,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>400</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1286,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1301,7 +1337,7 @@
         <v>400</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,7 +1345,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1324,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1333,7 +1369,7 @@
         <v>400</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1350,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1365,7 +1401,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1373,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1388,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -1397,7 +1433,7 @@
         <v>400</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1405,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1423,13 +1459,13 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>400</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,10 +1473,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1461,7 +1497,7 @@
         <v>401</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4182F-B958-4B7A-8BDF-989AC633AD85}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\aut\RestAssuredAPIAutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C3E31-37F2-4FCD-A173-EC2266C968AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E58006-0D85-4C70-94D4-F25D4CFEB1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
   </bookViews>
   <sheets>
     <sheet name="customer-accounts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -108,9 +108,6 @@
     <t>usr02</t>
   </si>
   <si>
-    <t>usr101</t>
-  </si>
-  <si>
     <t>apasswrd</t>
   </si>
   <si>
@@ -211,12 +208,6 @@
   </si>
   <si>
     <t>saving5</t>
-  </si>
-  <si>
-    <t>checking6</t>
-  </si>
-  <si>
-    <t>saving6</t>
   </si>
   <si>
     <t>saving3</t>
@@ -600,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7707D6F-F878-426C-B6BD-4350B39BDDF0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -672,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -686,13 +677,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +691,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +705,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -774,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DBAF80-3095-47FB-9F31-5B7483FD57EE}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -845,7 +836,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -859,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -874,7 +865,7 @@
         <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -903,7 +894,7 @@
         <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -917,10 +908,10 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>1.4950000000000001</v>
@@ -932,7 +923,7 @@
         <v>200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -943,13 +934,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1.494</v>
@@ -961,7 +952,7 @@
         <v>200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,13 +963,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>99000</v>
@@ -990,7 +981,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1028,19 +1019,19 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1057,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1081,7 +1072,7 @@
         <v>400</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1113,7 +1104,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1145,7 +1136,7 @@
         <v>400</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,19 +1144,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1177,7 +1168,7 @@
         <v>400</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1185,19 +1176,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1209,7 +1200,7 @@
         <v>400</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1241,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1273,7 +1264,7 @@
         <v>400</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1299,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>400</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1322,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1337,7 +1328,7 @@
         <v>400</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1360,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1369,7 +1360,7 @@
         <v>400</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1386,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1401,7 +1392,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1424,7 +1415,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -1433,7 +1424,7 @@
         <v>400</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1459,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14">
         <v>400</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,10 +1464,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1497,7 +1488,7 @@
         <v>401</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1501,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,10 +1548,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,10 +1559,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\aut\RestAssuredAPIAutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E58006-0D85-4C70-94D4-F25D4CFEB1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9DDD8-D828-43C3-9CA0-A3C4990FA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
   </bookViews>
   <sheets>
     <sheet name="customer-accounts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -202,12 +202,6 @@
   </si>
   <si>
     <t>saving4</t>
-  </si>
-  <si>
-    <t>checking5</t>
-  </si>
-  <si>
-    <t>saving5</t>
   </si>
   <si>
     <t>saving3</t>
@@ -589,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7707D6F-F878-426C-B6BD-4350B39BDDF0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -726,34 +720,6 @@
       </c>
       <c r="D9" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -765,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DBAF80-3095-47FB-9F31-5B7483FD57EE}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +741,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -821,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -850,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -908,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -937,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -966,13 +932,13 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <v>99000</v>
+        <v>98000</v>
       </c>
       <c r="G7">
         <v>99000</v>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\aut\RestAssuredAPIAutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9DDD8-D828-43C3-9CA0-A3C4990FA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12805C2B-EE95-4649-B12E-670210CE412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{56DD97CB-C548-4ADA-8608-58CCA9AB3472}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>98000</v>
       </c>
       <c r="G7">
-        <v>99000</v>
+        <v>98000</v>
       </c>
       <c r="H7">
         <v>200</v>
